--- a/ValueSet-vs-tnm-category-observation.xlsx
+++ b/ValueSet-vs-tnm-category-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T11:38:14+00:00</t>
+    <t>2023-06-26T12:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-category-observation.xlsx
+++ b/ValueSet-vs-tnm-category-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:20:42+00:00</t>
+    <t>2023-07-06T08:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-category-observation.xlsx
+++ b/ValueSet-vs-tnm-category-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:26:38+00:00</t>
+    <t>2023-07-06T08:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-category-observation.xlsx
+++ b/ValueSet-vs-tnm-category-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:27:50+00:00</t>
+    <t>2023-09-27T08:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-category-observation.xlsx
+++ b/ValueSet-vs-tnm-category-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-27T08:44:59+00:00</t>
+    <t>2023-11-02T12:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-category-observation.xlsx
+++ b/ValueSet-vs-tnm-category-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:02:41+00:00</t>
+    <t>2023-11-02T12:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-category-observation.xlsx
+++ b/ValueSet-vs-tnm-category-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:33+00:00</t>
+    <t>2023-11-02T12:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-tnm-category-observation.xlsx
+++ b/ValueSet-vs-tnm-category-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:02+00:00</t>
+    <t>2023-12-13T13:28:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
